--- a/data/raw data/HBEFA3.3_emission_factors.xlsx
+++ b/data/raw data/HBEFA3.3_emission_factors.xlsx
@@ -202,7 +202,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,16 +260,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -350,8 +355,13 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3025,34 +3035,34 @@
   <dimension ref="A1:AF204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="10"/>
+    <col min="10" max="10" width="11.42578125" style="9"/>
     <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3078,7 +3088,7 @@
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3090,14 +3100,14 @@
       <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3110,19 +3120,19 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
       <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -3133,29 +3143,29 @@
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="M4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E5">
@@ -3185,22 +3195,22 @@
       <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="3"/>
       <c r="O5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E6">
@@ -3230,22 +3240,22 @@
       <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="3"/>
       <c r="O6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E7">
@@ -3275,23 +3285,23 @@
       <c r="M7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="3"/>
       <c r="O7" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
@@ -3321,23 +3331,23 @@
       <c r="M8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="3"/>
       <c r="O8" t="s">
         <v>29</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E9">
@@ -3367,23 +3377,23 @@
       <c r="M9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="3"/>
       <c r="O9" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E10">
@@ -3413,22 +3423,22 @@
       <c r="M10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="11" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E11">
@@ -3458,18 +3468,18 @@
       <c r="M11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="3"/>
       <c r="O11" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="8"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3505,18 +3515,18 @@
       <c r="M12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="3"/>
       <c r="O12" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="8"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3552,18 +3562,18 @@
       <c r="M13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="3"/>
       <c r="O13" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="8"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3599,16 +3609,17 @@
       <c r="M14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="3"/>
       <c r="O14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T14" s="37"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3644,16 +3655,16 @@
       <c r="M15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="3"/>
       <c r="O15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3689,7 +3700,7 @@
       <c r="M16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="3"/>
       <c r="O16" t="s">
         <v>31</v>
       </c>
@@ -3698,7 +3709,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3734,8 +3745,8 @@
       <c r="M17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="11" t="s">
+      <c r="N17" s="3"/>
+      <c r="O17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3743,7 +3754,7 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3779,7 +3790,7 @@
       <c r="M18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="3"/>
       <c r="O18" t="s">
         <v>31</v>
       </c>
@@ -3788,7 +3799,7 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3824,7 +3835,7 @@
       <c r="M19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="3"/>
       <c r="O19" t="s">
         <v>25</v>
       </c>
@@ -3833,7 +3844,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3869,7 +3880,7 @@
       <c r="M20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="3"/>
       <c r="O20" t="s">
         <v>25</v>
       </c>
@@ -3878,7 +3889,7 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3914,7 +3925,7 @@
       <c r="M21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="3"/>
       <c r="O21" t="s">
         <v>25</v>
       </c>
@@ -3923,7 +3934,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3959,7 +3970,7 @@
       <c r="M22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="3"/>
       <c r="O22" t="s">
         <v>29</v>
       </c>
@@ -3968,7 +3979,7 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4004,7 +4015,7 @@
       <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="3"/>
       <c r="O23" t="s">
         <v>31</v>
       </c>
@@ -4013,7 +4024,7 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4049,8 +4060,8 @@
       <c r="M24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="11" t="s">
+      <c r="N24" s="3"/>
+      <c r="O24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4058,7 +4069,7 @@
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4094,7 +4105,7 @@
       <c r="M25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="3"/>
       <c r="O25" t="s">
         <v>31</v>
       </c>
@@ -4103,7 +4114,7 @@
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4112,7 +4123,7 @@
       <c r="D26" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <v>90.790748596191406</v>
       </c>
       <c r="F26">
@@ -4139,7 +4150,7 @@
       <c r="M26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="4"/>
+      <c r="N26" s="3"/>
       <c r="O26" t="s">
         <v>25</v>
       </c>
@@ -4148,7 +4159,7 @@
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4157,7 +4168,7 @@
       <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="34">
         <v>90.790748596191406</v>
       </c>
       <c r="F27">
@@ -4184,7 +4195,7 @@
       <c r="M27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="4"/>
+      <c r="N27" s="3"/>
       <c r="O27" t="s">
         <v>25</v>
       </c>
@@ -4193,7 +4204,7 @@
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4202,7 +4213,7 @@
       <c r="D28" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="34">
         <v>90.790748596191406</v>
       </c>
       <c r="F28">
@@ -4229,7 +4240,7 @@
       <c r="M28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="4"/>
+      <c r="N28" s="3"/>
       <c r="O28" t="s">
         <v>25</v>
       </c>
@@ -4238,7 +4249,7 @@
       <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4247,7 +4258,7 @@
       <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="34">
         <v>157.87193298339801</v>
       </c>
       <c r="F29">
@@ -4274,7 +4285,7 @@
       <c r="M29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="4"/>
+      <c r="N29" s="3"/>
       <c r="O29" t="s">
         <v>29</v>
       </c>
@@ -4283,7 +4294,7 @@
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4292,7 +4303,7 @@
       <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="34">
         <v>216.470291137695</v>
       </c>
       <c r="F30">
@@ -4319,7 +4330,7 @@
       <c r="M30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="4"/>
+      <c r="N30" s="3"/>
       <c r="O30" t="s">
         <v>31</v>
       </c>
@@ -4328,7 +4339,7 @@
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4337,7 +4348,7 @@
       <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="34">
         <v>157.87193298339801</v>
       </c>
       <c r="F31">
@@ -4364,8 +4375,8 @@
       <c r="M31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="11" t="s">
+      <c r="N31" s="3"/>
+      <c r="O31" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4373,7 +4384,7 @@
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4382,7 +4393,7 @@
       <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="34">
         <v>216.470291137695</v>
       </c>
       <c r="F32">
@@ -4409,7 +4420,7 @@
       <c r="M32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="4"/>
+      <c r="N32" s="3"/>
       <c r="O32" t="s">
         <v>31</v>
       </c>
@@ -4418,7 +4429,7 @@
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4427,7 +4438,7 @@
       <c r="D33" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="34">
         <v>98.760406494140597</v>
       </c>
       <c r="F33">
@@ -4454,7 +4465,7 @@
       <c r="M33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="4"/>
+      <c r="N33" s="3"/>
       <c r="O33" t="s">
         <v>25</v>
       </c>
@@ -4463,7 +4474,7 @@
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4472,7 +4483,7 @@
       <c r="D34" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="34">
         <v>98.760406494140597</v>
       </c>
       <c r="F34">
@@ -4499,7 +4510,7 @@
       <c r="M34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="3"/>
       <c r="O34" t="s">
         <v>25</v>
       </c>
@@ -4508,7 +4519,7 @@
       <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4517,7 +4528,7 @@
       <c r="D35" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="34">
         <v>98.760406494140597</v>
       </c>
       <c r="F35">
@@ -4544,7 +4555,7 @@
       <c r="M35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="4"/>
+      <c r="N35" s="3"/>
       <c r="O35" t="s">
         <v>25</v>
       </c>
@@ -4553,7 +4564,7 @@
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4562,7 +4573,7 @@
       <c r="D36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="34">
         <v>171.73002624511699</v>
       </c>
       <c r="F36">
@@ -4598,7 +4609,7 @@
       <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4607,7 +4618,7 @@
       <c r="D37" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="34">
         <v>235.47218322753901</v>
       </c>
       <c r="F37">
@@ -4643,7 +4654,7 @@
       <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4652,7 +4663,7 @@
       <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="35">
         <v>171.73002624511699</v>
       </c>
       <c r="F38">
@@ -4680,7 +4691,7 @@
         <v>24</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4688,7 +4699,7 @@
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4697,7 +4708,7 @@
       <c r="D39" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="35">
         <v>235.47218322753901</v>
       </c>
       <c r="F39">
@@ -4733,7 +4744,7 @@
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4742,7 +4753,7 @@
       <c r="D40" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="34">
         <v>31.0661106109619</v>
       </c>
       <c r="F40">
@@ -4778,7 +4789,7 @@
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4787,7 +4798,7 @@
       <c r="D41" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="35">
         <v>31.0661106109619</v>
       </c>
       <c r="F41">
@@ -4823,7 +4834,7 @@
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4832,7 +4843,7 @@
       <c r="D42" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="35">
         <v>31.0661106109619</v>
       </c>
       <c r="F42">
@@ -4868,7 +4879,7 @@
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4877,7 +4888,7 @@
       <c r="D43" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="34">
         <v>54.019458770752003</v>
       </c>
       <c r="F43">
@@ -4913,7 +4924,7 @@
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4922,7 +4933,7 @@
       <c r="D44" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="34">
         <v>74.070220947265597</v>
       </c>
       <c r="F44">
@@ -4958,7 +4969,7 @@
       <c r="A45" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4967,7 +4978,7 @@
       <c r="D45" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="35">
         <v>54.019458770752003</v>
       </c>
       <c r="F45">
@@ -4995,7 +5006,7 @@
         <v>24</v>
       </c>
       <c r="N45" s="1"/>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5003,7 +5014,7 @@
       <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -5012,7 +5023,7 @@
       <c r="D46" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="35">
         <v>74.070220947265597</v>
       </c>
       <c r="F46">
@@ -5048,7 +5059,7 @@
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -5089,7 +5100,7 @@
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -5130,7 +5141,7 @@
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -5171,7 +5182,7 @@
       <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -5212,7 +5223,7 @@
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -5253,7 +5264,7 @@
       <c r="A52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -5289,7 +5300,7 @@
       <c r="M52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S52" s="15"/>
+      <c r="S52" s="14"/>
       <c r="T52" s="1"/>
       <c r="W52" s="1"/>
     </row>
@@ -5297,7 +5308,7 @@
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -5338,7 +5349,7 @@
       <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5379,7 +5390,7 @@
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -5420,7 +5431,7 @@
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -5461,7 +5472,7 @@
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -5502,7 +5513,7 @@
       <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -5549,7 +5560,7 @@
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -5596,7 +5607,7 @@
       <c r="A60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -5644,7 +5655,7 @@
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -5702,7 +5713,7 @@
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -5753,7 +5764,7 @@
       <c r="A63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -5804,7 +5815,7 @@
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -5842,7 +5853,7 @@
         <v>24</v>
       </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="10" t="s">
         <v>33</v>
       </c>
       <c r="P64" s="1"/>
@@ -5855,7 +5866,7 @@
       <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -5906,7 +5917,7 @@
       <c r="A66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -5915,10 +5926,10 @@
       <c r="D66" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="30">
         <v>3.76204145140946E-3</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="15">
         <v>1.47378887049854E-3</v>
       </c>
       <c r="G66" s="1">
@@ -5954,7 +5965,7 @@
       <c r="A67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -5963,16 +5974,16 @@
       <c r="D67" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="30">
         <v>5.4065268486738196E-3</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="15">
         <v>2.1180198527872601E-3</v>
       </c>
       <c r="G67" s="1">
         <v>1.3388096122071099E-3</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <v>7.5477373320609299E-4</v>
       </c>
       <c r="I67" s="1">
@@ -5996,7 +6007,7 @@
       <c r="A68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -6005,16 +6016,16 @@
       <c r="D68" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="30">
         <v>1.0299606323242201</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="15">
         <v>0.49536460638046298</v>
       </c>
       <c r="G68" s="1">
         <v>0.33509382605552701</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <v>0.12797589600086201</v>
       </c>
       <c r="I68" s="1">
@@ -6038,7 +6049,7 @@
       <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -6047,7 +6058,7 @@
       <c r="D69" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="30">
         <v>0.22527195513248399</v>
       </c>
       <c r="F69">
@@ -6080,7 +6091,7 @@
       <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -6089,7 +6100,7 @@
       <c r="D70" t="s">
         <v>43</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="30">
         <v>0</v>
       </c>
       <c r="F70">
@@ -6122,7 +6133,7 @@
       <c r="A71" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -6131,7 +6142,7 @@
       <c r="D71" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="31">
+      <c r="E71" s="30">
         <v>1.00000004749745E-3</v>
       </c>
       <c r="F71">
@@ -6164,7 +6175,7 @@
       <c r="A72" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -6173,7 +6184,7 @@
       <c r="D72" t="s">
         <v>45</v>
       </c>
-      <c r="E72" s="31">
+      <c r="E72" s="30">
         <v>0.21986542642116499</v>
       </c>
       <c r="F72">
@@ -6206,7 +6217,7 @@
       <c r="A73" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -6215,7 +6226,7 @@
       <c r="D73" t="s">
         <v>46</v>
       </c>
-      <c r="E73" s="32">
+      <c r="E73" s="31">
         <v>7.6980717480182606E-2</v>
       </c>
       <c r="F73">
@@ -6243,7 +6254,7 @@
         <v>24</v>
       </c>
       <c r="N73" s="1"/>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6251,7 +6262,7 @@
       <c r="A74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -6260,7 +6271,7 @@
       <c r="D74" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="32">
+      <c r="E74" s="31">
         <v>0.96225899457931496</v>
       </c>
       <c r="F74">
@@ -6288,7 +6299,7 @@
         <v>24</v>
       </c>
       <c r="N74" s="1"/>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6296,7 +6307,7 @@
       <c r="A75" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -6305,7 +6316,7 @@
       <c r="D75" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="30">
         <v>0.20687004923820501</v>
       </c>
       <c r="F75">
@@ -6338,7 +6349,7 @@
       <c r="A76" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -6347,7 +6358,7 @@
       <c r="D76" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="31">
+      <c r="E76" s="30">
         <v>61982438850560</v>
       </c>
       <c r="F76">
@@ -6380,7 +6391,7 @@
       <c r="A77" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -6389,7 +6400,7 @@
       <c r="D77" t="s">
         <v>50</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="30">
         <v>0</v>
       </c>
       <c r="F77">
@@ -6422,7 +6433,7 @@
       <c r="A78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -6431,7 +6442,7 @@
       <c r="D78" t="s">
         <v>51</v>
       </c>
-      <c r="E78" s="31">
+      <c r="E78" s="30">
         <v>4.9705780111253305E-4</v>
       </c>
       <c r="F78">
@@ -6467,7 +6478,7 @@
       <c r="A79" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -6477,7 +6488,7 @@
         <f>D78</f>
         <v>SO2</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E79" s="32">
         <v>4.9705780111253305E-4</v>
       </c>
       <c r="F79">
@@ -6508,17 +6519,17 @@
       <c r="O79" t="s">
         <v>25</v>
       </c>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="17"/>
-      <c r="Z79" s="16"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="15"/>
     </row>
     <row r="80" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -6528,7 +6539,7 @@
         <f t="shared" ref="D80:D84" si="1">D79</f>
         <v>SO2</v>
       </c>
-      <c r="E80" s="33">
+      <c r="E80" s="32">
         <v>4.9705780111253305E-4</v>
       </c>
       <c r="F80">
@@ -6559,19 +6570,19 @@
       <c r="O80" t="s">
         <v>25</v>
       </c>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
-      <c r="Z80" s="17"/>
-      <c r="AA80" s="10"/>
-      <c r="AB80" s="10"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -6581,7 +6592,7 @@
         <f t="shared" si="1"/>
         <v>SO2</v>
       </c>
-      <c r="E81" s="34">
+      <c r="E81" s="33">
         <v>8.6431135423481497E-4</v>
       </c>
       <c r="F81">
@@ -6612,19 +6623,19 @@
       <c r="O81" t="s">
         <v>29</v>
       </c>
-      <c r="V81" s="17"/>
-      <c r="W81" s="17"/>
-      <c r="X81" s="17"/>
-      <c r="Y81" s="17"/>
-      <c r="Z81" s="17"/>
-      <c r="AA81" s="10"/>
-      <c r="AB81" s="10"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -6634,7 +6645,7 @@
         <f t="shared" si="1"/>
         <v>SO2</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E82" s="33">
         <v>1.185123459436E-3</v>
       </c>
       <c r="F82">
@@ -6665,19 +6676,19 @@
       <c r="O82" t="s">
         <v>31</v>
       </c>
-      <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
-      <c r="X82" s="17"/>
-      <c r="Y82" s="17"/>
-      <c r="Z82" s="17"/>
-      <c r="AA82" s="10"/>
-      <c r="AB82" s="10"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="16"/>
+      <c r="Y82" s="16"/>
+      <c r="Z82" s="16"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -6687,7 +6698,7 @@
         <f t="shared" si="1"/>
         <v>SO2</v>
       </c>
-      <c r="E83" s="33">
+      <c r="E83" s="32">
         <v>8.6431135423481497E-4</v>
       </c>
       <c r="F83">
@@ -6715,22 +6726,22 @@
         <v>24</v>
       </c>
       <c r="N83" s="1"/>
-      <c r="O83" s="11" t="s">
+      <c r="O83" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="17"/>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="10"/>
-      <c r="AB83" s="10"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -6740,7 +6751,7 @@
         <f t="shared" si="1"/>
         <v>SO2</v>
       </c>
-      <c r="E84" s="33">
+      <c r="E84" s="32">
         <v>1.185123459436E-3</v>
       </c>
       <c r="F84">
@@ -6771,22 +6782,22 @@
       <c r="O84" t="s">
         <v>31</v>
       </c>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="10"/>
-      <c r="Z84" s="10"/>
-      <c r="AA84" s="10"/>
-      <c r="AB84" s="10"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
-      <c r="L85" s="19"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="19"/>
+      <c r="L85" s="18"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
@@ -6794,1400 +6805,1400 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="18"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="16"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="15"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16"/>
-      <c r="Y86" s="17"/>
-      <c r="Z86" s="16"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="16"/>
+      <c r="Z86" s="15"/>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="18"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="16"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="15"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="Y87" s="17"/>
-      <c r="Z87" s="16"/>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="15"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="18"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="16"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="15"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-      <c r="X88" s="16"/>
-      <c r="Y88" s="16"/>
-      <c r="Z88" s="16"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="18"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="17"/>
-      <c r="V89" s="16"/>
-      <c r="W89" s="16"/>
-      <c r="X89" s="16"/>
-      <c r="Y89" s="16"/>
-      <c r="Z89" s="16"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="18"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="17"/>
-      <c r="V90" s="16"/>
-      <c r="W90" s="16"/>
-      <c r="X90" s="16"/>
-      <c r="Y90" s="16"/>
-      <c r="Z90" s="16"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="18"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="17"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
+      <c r="X91" s="16"/>
+      <c r="Y91" s="16"/>
+      <c r="Z91" s="16"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="18"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="22"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="17"/>
-      <c r="Z92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="21"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="16"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="18"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="18"/>
+      <c r="F93" s="17"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="22"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-      <c r="X93" s="17"/>
-      <c r="Y93" s="17"/>
-      <c r="Z93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="21"/>
+      <c r="V93" s="16"/>
+      <c r="W93" s="16"/>
+      <c r="X93" s="16"/>
+      <c r="Y93" s="16"/>
+      <c r="Z93" s="16"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="18"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="18"/>
+      <c r="F94" s="17"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="22"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="17"/>
-      <c r="X94" s="17"/>
-      <c r="Y94" s="17"/>
-      <c r="Z94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="21"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+      <c r="Z94" s="16"/>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="18"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="18"/>
+      <c r="F95" s="17"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="22"/>
-      <c r="V95" s="20"/>
-      <c r="W95" s="20"/>
-      <c r="X95" s="20"/>
-      <c r="Y95" s="21"/>
-      <c r="Z95" s="20"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="21"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="19"/>
+      <c r="X95" s="19"/>
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="19"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="18"/>
+      <c r="D96" s="17"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="18"/>
+      <c r="F96" s="17"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="3"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="18"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="18"/>
+      <c r="F97" s="17"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="3"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="18"/>
+      <c r="D98" s="17"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="18"/>
+      <c r="F98" s="17"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="3"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="18"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="18"/>
+      <c r="F99" s="17"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="3"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="18"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="18"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="3"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="18"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="18"/>
+      <c r="F101" s="17"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="3"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="18"/>
+      <c r="D102" s="17"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="16"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="15"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="4"/>
+      <c r="M102" s="3"/>
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="18"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="16"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="15"/>
       <c r="L103" s="1"/>
-      <c r="M103" s="4"/>
+      <c r="M103" s="3"/>
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="18"/>
+      <c r="D104" s="17"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="16"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="15"/>
       <c r="L104" s="1"/>
-      <c r="M104" s="4"/>
+      <c r="M104" s="3"/>
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="18"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="16"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="15"/>
       <c r="L105" s="1"/>
-      <c r="M105" s="4"/>
+      <c r="M105" s="3"/>
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="18"/>
+      <c r="D106" s="17"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="16"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="15"/>
       <c r="L106" s="1"/>
-      <c r="M106" s="4"/>
+      <c r="M106" s="3"/>
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="18"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="16"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="15"/>
       <c r="L107" s="1"/>
-      <c r="M107" s="4"/>
+      <c r="M107" s="3"/>
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="18"/>
+      <c r="D108" s="17"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="16"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="15"/>
       <c r="L108" s="1"/>
-      <c r="M108" s="4"/>
+      <c r="M108" s="3"/>
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="18"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="16"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="15"/>
       <c r="L109" s="1"/>
-      <c r="M109" s="4"/>
+      <c r="M109" s="3"/>
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="18"/>
+      <c r="D110" s="17"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="16"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="15"/>
       <c r="L110" s="1"/>
-      <c r="M110" s="4"/>
+      <c r="M110" s="3"/>
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="18"/>
+      <c r="D111" s="17"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="16"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="15"/>
       <c r="L111" s="1"/>
-      <c r="M111" s="4"/>
+      <c r="M111" s="3"/>
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="18"/>
+      <c r="D112" s="17"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="16"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="15"/>
       <c r="L112" s="1"/>
-      <c r="M112" s="4"/>
+      <c r="M112" s="3"/>
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="18"/>
+      <c r="D113" s="17"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="16"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="15"/>
       <c r="L113" s="1"/>
-      <c r="M113" s="4"/>
+      <c r="M113" s="3"/>
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="18"/>
+      <c r="D114" s="17"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="16"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="15"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="4"/>
+      <c r="M114" s="3"/>
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="18"/>
+      <c r="D115" s="17"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="16"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="15"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="4"/>
+      <c r="M115" s="3"/>
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="18"/>
+      <c r="D116" s="17"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="16"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="15"/>
       <c r="L116" s="1"/>
-      <c r="M116" s="4"/>
+      <c r="M116" s="3"/>
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="18"/>
+      <c r="D117" s="17"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="16"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="15"/>
       <c r="L117" s="1"/>
-      <c r="M117" s="4"/>
+      <c r="M117" s="3"/>
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="8"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="16"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="15"/>
       <c r="L118" s="1"/>
-      <c r="M118" s="4"/>
+      <c r="M118" s="3"/>
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="8"/>
+      <c r="D119" s="7"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="16"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="15"/>
       <c r="L119" s="1"/>
-      <c r="M119" s="4"/>
+      <c r="M119" s="3"/>
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="8"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="16"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="15"/>
       <c r="L120" s="1"/>
-      <c r="M120" s="4"/>
+      <c r="M120" s="3"/>
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="8"/>
+      <c r="D121" s="7"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="16"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="15"/>
       <c r="L121" s="1"/>
-      <c r="M121" s="4"/>
+      <c r="M121" s="3"/>
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="8"/>
+      <c r="D122" s="7"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="18"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="17"/>
       <c r="L122" s="1"/>
-      <c r="M122" s="4"/>
+      <c r="M122" s="3"/>
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="8"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="18"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="17"/>
       <c r="L123" s="1"/>
-      <c r="M123" s="4"/>
+      <c r="M123" s="3"/>
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="8"/>
+      <c r="D124" s="7"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="18"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="17"/>
       <c r="L124" s="1"/>
-      <c r="M124" s="4"/>
+      <c r="M124" s="3"/>
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="8"/>
+      <c r="D125" s="7"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="18"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="17"/>
       <c r="L125" s="1"/>
-      <c r="M125" s="4"/>
+      <c r="M125" s="3"/>
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="8"/>
+      <c r="D126" s="7"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="18"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="17"/>
       <c r="L126" s="1"/>
-      <c r="M126" s="4"/>
+      <c r="M126" s="3"/>
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="8"/>
+      <c r="D127" s="7"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="22"/>
-      <c r="K127" s="18"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="17"/>
       <c r="L127" s="1"/>
-      <c r="M127" s="4"/>
+      <c r="M127" s="3"/>
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="8"/>
+      <c r="D128" s="7"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="18"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="21"/>
+      <c r="K128" s="17"/>
       <c r="L128" s="1"/>
-      <c r="M128" s="4"/>
+      <c r="M128" s="3"/>
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="8"/>
+      <c r="D129" s="7"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="22"/>
-      <c r="K129" s="18"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="21"/>
+      <c r="K129" s="17"/>
       <c r="L129" s="1"/>
-      <c r="M129" s="4"/>
+      <c r="M129" s="3"/>
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="8"/>
+      <c r="D130" s="7"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="22"/>
-      <c r="K130" s="18"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="17"/>
       <c r="L130" s="1"/>
-      <c r="M130" s="4"/>
+      <c r="M130" s="3"/>
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="8"/>
+      <c r="D131" s="7"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="22"/>
-      <c r="K131" s="18"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="21"/>
+      <c r="K131" s="17"/>
       <c r="L131" s="1"/>
-      <c r="M131" s="4"/>
+      <c r="M131" s="3"/>
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="8"/>
+      <c r="D132" s="7"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="22"/>
-      <c r="K132" s="18"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="21"/>
+      <c r="K132" s="17"/>
       <c r="L132" s="1"/>
-      <c r="M132" s="4"/>
+      <c r="M132" s="3"/>
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="8"/>
+      <c r="D133" s="7"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="22"/>
-      <c r="K133" s="18"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="17"/>
       <c r="L133" s="1"/>
-      <c r="M133" s="4"/>
+      <c r="M133" s="3"/>
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="8"/>
+      <c r="D134" s="7"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="18"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="17"/>
       <c r="L134" s="1"/>
-      <c r="M134" s="4"/>
+      <c r="M134" s="3"/>
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="8"/>
+      <c r="D135" s="7"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="22"/>
-      <c r="K135" s="18"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="17"/>
       <c r="L135" s="1"/>
-      <c r="M135" s="4"/>
+      <c r="M135" s="3"/>
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="8"/>
+      <c r="D136" s="7"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="22"/>
-      <c r="K136" s="18"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="17"/>
       <c r="L136" s="1"/>
-      <c r="M136" s="4"/>
+      <c r="M136" s="3"/>
       <c r="N136" s="1"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="8"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="8"/>
+      <c r="D168" s="7"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="13"/>
-      <c r="J168" s="14"/>
-      <c r="K168" s="13"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="1"/>
-      <c r="M168" s="4"/>
+      <c r="M168" s="3"/>
       <c r="N168" s="1"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="8"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="8"/>
+      <c r="D169" s="7"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="14"/>
-      <c r="K169" s="13"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="12"/>
       <c r="L169" s="1"/>
-      <c r="M169" s="4"/>
+      <c r="M169" s="3"/>
       <c r="N169" s="1"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="8"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="8"/>
+      <c r="D170" s="7"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="13"/>
-      <c r="J170" s="14"/>
-      <c r="K170" s="13"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="12"/>
       <c r="L170" s="1"/>
-      <c r="M170" s="4"/>
+      <c r="M170" s="3"/>
       <c r="N170" s="1"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="8"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="8"/>
+      <c r="D171" s="7"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="14"/>
-      <c r="K171" s="13"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="12"/>
       <c r="L171" s="1"/>
-      <c r="M171" s="4"/>
+      <c r="M171" s="3"/>
       <c r="N171" s="1"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="8"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="8"/>
+      <c r="D172" s="7"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
-      <c r="H172" s="13"/>
-      <c r="I172" s="13"/>
-      <c r="J172" s="14"/>
-      <c r="K172" s="13"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="12"/>
       <c r="L172" s="1"/>
-      <c r="M172" s="4"/>
+      <c r="M172" s="3"/>
       <c r="N172" s="1"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="23"/>
-      <c r="I173" s="23"/>
-      <c r="J173" s="24"/>
-      <c r="K173" s="23"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="22"/>
+      <c r="J173" s="23"/>
+      <c r="K173" s="22"/>
       <c r="L173" s="1"/>
-      <c r="M173" s="4"/>
+      <c r="M173" s="3"/>
       <c r="N173" s="1"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="8"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="8"/>
+      <c r="D174" s="7"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="23"/>
-      <c r="G174" s="23"/>
-      <c r="H174" s="23"/>
-      <c r="I174" s="23"/>
-      <c r="J174" s="24"/>
-      <c r="K174" s="23"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="22"/>
+      <c r="J174" s="23"/>
+      <c r="K174" s="22"/>
       <c r="L174" s="1"/>
-      <c r="M174" s="4"/>
+      <c r="M174" s="3"/>
       <c r="N174" s="1"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="25"/>
-      <c r="I175" s="25"/>
-      <c r="J175" s="26"/>
-      <c r="K175" s="25"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="24"/>
+      <c r="J175" s="25"/>
+      <c r="K175" s="24"/>
       <c r="L175" s="1"/>
-      <c r="M175" s="4"/>
+      <c r="M175" s="3"/>
       <c r="N175" s="1"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="28"/>
-      <c r="K176" s="27"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="26"/>
+      <c r="J176" s="27"/>
+      <c r="K176" s="26"/>
       <c r="L176" s="1"/>
-      <c r="M176" s="4"/>
+      <c r="M176" s="3"/>
       <c r="N176" s="1"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="28"/>
-      <c r="K177" s="27"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="26"/>
       <c r="L177" s="1"/>
-      <c r="M177" s="4"/>
+      <c r="M177" s="3"/>
       <c r="N177" s="1"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="23"/>
-      <c r="G178" s="23"/>
-      <c r="H178" s="23"/>
-      <c r="I178" s="23"/>
-      <c r="J178" s="24"/>
-      <c r="K178" s="23"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22"/>
+      <c r="I178" s="22"/>
+      <c r="J178" s="23"/>
+      <c r="K178" s="22"/>
       <c r="L178" s="1"/>
-      <c r="M178" s="4"/>
+      <c r="M178" s="3"/>
       <c r="N178" s="1"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
-      <c r="I179" s="25"/>
-      <c r="J179" s="26"/>
-      <c r="K179" s="25"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="24"/>
+      <c r="J179" s="25"/>
+      <c r="K179" s="24"/>
       <c r="L179" s="1"/>
-      <c r="M179" s="4"/>
+      <c r="M179" s="3"/>
       <c r="N179" s="1"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="25"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="25"/>
-      <c r="I180" s="25"/>
-      <c r="J180" s="26"/>
-      <c r="K180" s="25"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="24"/>
+      <c r="J180" s="25"/>
+      <c r="K180" s="24"/>
       <c r="L180" s="1"/>
-      <c r="M180" s="4"/>
+      <c r="M180" s="3"/>
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="25"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="25"/>
-      <c r="I181" s="25"/>
-      <c r="J181" s="26"/>
-      <c r="K181" s="25"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="24"/>
+      <c r="I181" s="24"/>
+      <c r="J181" s="25"/>
+      <c r="K181" s="24"/>
       <c r="L181" s="1"/>
-      <c r="M181" s="4"/>
+      <c r="M181" s="3"/>
       <c r="N181" s="1"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="25"/>
-      <c r="I182" s="25"/>
-      <c r="J182" s="26"/>
-      <c r="K182" s="25"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
+      <c r="J182" s="25"/>
+      <c r="K182" s="24"/>
       <c r="L182" s="1"/>
-      <c r="M182" s="4"/>
+      <c r="M182" s="3"/>
       <c r="N182" s="1"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="25"/>
-      <c r="I183" s="25"/>
-      <c r="J183" s="26"/>
-      <c r="K183" s="25"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="24"/>
       <c r="L183" s="1"/>
-      <c r="M183" s="4"/>
+      <c r="M183" s="3"/>
       <c r="N183" s="1"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="25"/>
-      <c r="G184" s="25"/>
-      <c r="H184" s="25"/>
-      <c r="I184" s="25"/>
-      <c r="J184" s="26"/>
-      <c r="K184" s="25"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="24"/>
+      <c r="I184" s="24"/>
+      <c r="J184" s="25"/>
+      <c r="K184" s="24"/>
       <c r="L184" s="1"/>
-      <c r="M184" s="4"/>
+      <c r="M184" s="3"/>
       <c r="N184" s="1"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="25"/>
-      <c r="H185" s="25"/>
-      <c r="I185" s="25"/>
-      <c r="J185" s="26"/>
-      <c r="K185" s="25"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="24"/>
+      <c r="I185" s="24"/>
+      <c r="J185" s="25"/>
+      <c r="K185" s="24"/>
       <c r="L185" s="1"/>
-      <c r="M185" s="4"/>
+      <c r="M185" s="3"/>
       <c r="N185" s="1"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="25"/>
-      <c r="H186" s="25"/>
-      <c r="I186" s="25"/>
-      <c r="J186" s="26"/>
-      <c r="K186" s="25"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="24"/>
+      <c r="I186" s="24"/>
+      <c r="J186" s="25"/>
+      <c r="K186" s="24"/>
       <c r="L186" s="1"/>
-      <c r="M186" s="4"/>
+      <c r="M186" s="3"/>
       <c r="N186" s="1"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="25"/>
-      <c r="I187" s="25"/>
-      <c r="J187" s="26"/>
-      <c r="K187" s="25"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="24"/>
+      <c r="J187" s="25"/>
+      <c r="K187" s="24"/>
       <c r="L187" s="1"/>
-      <c r="M187" s="4"/>
+      <c r="M187" s="3"/>
       <c r="N187" s="1"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="25"/>
-      <c r="G188" s="25"/>
-      <c r="H188" s="25"/>
-      <c r="I188" s="25"/>
-      <c r="J188" s="26"/>
-      <c r="K188" s="25"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="24"/>
+      <c r="I188" s="24"/>
+      <c r="J188" s="25"/>
+      <c r="K188" s="24"/>
       <c r="L188" s="1"/>
-      <c r="M188" s="4"/>
+      <c r="M188" s="3"/>
       <c r="N188" s="1"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="25"/>
-      <c r="G189" s="25"/>
-      <c r="H189" s="25"/>
-      <c r="I189" s="25"/>
-      <c r="J189" s="26"/>
-      <c r="K189" s="25"/>
+      <c r="F189" s="24"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="24"/>
+      <c r="I189" s="24"/>
+      <c r="J189" s="25"/>
+      <c r="K189" s="24"/>
       <c r="L189" s="1"/>
-      <c r="M189" s="4"/>
+      <c r="M189" s="3"/>
       <c r="N189" s="1"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="25"/>
-      <c r="G190" s="25"/>
-      <c r="H190" s="25"/>
-      <c r="I190" s="25"/>
-      <c r="J190" s="26"/>
-      <c r="K190" s="25"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="24"/>
+      <c r="I190" s="24"/>
+      <c r="J190" s="25"/>
+      <c r="K190" s="24"/>
       <c r="L190" s="1"/>
-      <c r="M190" s="4"/>
+      <c r="M190" s="3"/>
       <c r="N190" s="1"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="25"/>
-      <c r="G191" s="25"/>
-      <c r="H191" s="25"/>
-      <c r="I191" s="25"/>
-      <c r="J191" s="26"/>
-      <c r="K191" s="25"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="25"/>
+      <c r="K191" s="24"/>
       <c r="L191" s="1"/>
-      <c r="M191" s="4"/>
+      <c r="M191" s="3"/>
       <c r="N191" s="1"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="25"/>
-      <c r="G192" s="25"/>
-      <c r="H192" s="25"/>
-      <c r="I192" s="25"/>
-      <c r="J192" s="26"/>
-      <c r="K192" s="25"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="24"/>
+      <c r="I192" s="24"/>
+      <c r="J192" s="25"/>
+      <c r="K192" s="24"/>
       <c r="L192" s="1"/>
-      <c r="M192" s="4"/>
+      <c r="M192" s="3"/>
       <c r="N192" s="1"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="23"/>
-      <c r="H193" s="23"/>
-      <c r="I193" s="23"/>
-      <c r="J193" s="24"/>
-      <c r="K193" s="23"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
+      <c r="I193" s="22"/>
+      <c r="J193" s="23"/>
+      <c r="K193" s="22"/>
       <c r="L193" s="1"/>
-      <c r="M193" s="4"/>
+      <c r="M193" s="3"/>
       <c r="N193" s="1"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="23"/>
-      <c r="G194" s="23"/>
-      <c r="H194" s="23"/>
-      <c r="I194" s="23"/>
-      <c r="J194" s="24"/>
-      <c r="K194" s="23"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="22"/>
+      <c r="I194" s="22"/>
+      <c r="J194" s="23"/>
+      <c r="K194" s="22"/>
       <c r="L194" s="1"/>
-      <c r="M194" s="4"/>
+      <c r="M194" s="3"/>
       <c r="N194" s="1"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="23"/>
-      <c r="G195" s="23"/>
-      <c r="H195" s="23"/>
-      <c r="I195" s="23"/>
-      <c r="J195" s="24"/>
-      <c r="K195" s="23"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22"/>
+      <c r="I195" s="22"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="22"/>
       <c r="L195" s="1"/>
-      <c r="M195" s="4"/>
+      <c r="M195" s="3"/>
       <c r="N195" s="1"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="23"/>
-      <c r="G196" s="23"/>
-      <c r="H196" s="23"/>
-      <c r="I196" s="23"/>
-      <c r="J196" s="24"/>
-      <c r="K196" s="23"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
+      <c r="I196" s="22"/>
+      <c r="J196" s="23"/>
+      <c r="K196" s="22"/>
       <c r="L196" s="1"/>
-      <c r="M196" s="4"/>
+      <c r="M196" s="3"/>
       <c r="N196" s="1"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="29"/>
-      <c r="G197" s="29"/>
-      <c r="H197" s="29"/>
-      <c r="I197" s="23"/>
-      <c r="J197" s="30"/>
-      <c r="K197" s="23"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="28"/>
+      <c r="H197" s="28"/>
+      <c r="I197" s="22"/>
+      <c r="J197" s="29"/>
+      <c r="K197" s="22"/>
       <c r="L197" s="1"/>
-      <c r="M197" s="4"/>
+      <c r="M197" s="3"/>
       <c r="N197" s="1"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="29"/>
-      <c r="G198" s="29"/>
-      <c r="H198" s="29"/>
-      <c r="I198" s="23"/>
-      <c r="J198" s="30"/>
-      <c r="K198" s="23"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="28"/>
+      <c r="H198" s="28"/>
+      <c r="I198" s="22"/>
+      <c r="J198" s="29"/>
+      <c r="K198" s="22"/>
       <c r="L198" s="1"/>
-      <c r="M198" s="4"/>
+      <c r="M198" s="3"/>
       <c r="N198" s="1"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="29"/>
-      <c r="G199" s="29"/>
-      <c r="H199" s="29"/>
-      <c r="I199" s="23"/>
-      <c r="J199" s="30"/>
-      <c r="K199" s="23"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
+      <c r="H199" s="28"/>
+      <c r="I199" s="22"/>
+      <c r="J199" s="29"/>
+      <c r="K199" s="22"/>
       <c r="L199" s="1"/>
-      <c r="M199" s="4"/>
+      <c r="M199" s="3"/>
       <c r="N199" s="1"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="23"/>
-      <c r="H200" s="23"/>
-      <c r="I200" s="23"/>
-      <c r="J200" s="24"/>
-      <c r="K200" s="23"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
+      <c r="J200" s="23"/>
+      <c r="K200" s="22"/>
       <c r="L200" s="1"/>
-      <c r="M200" s="4"/>
+      <c r="M200" s="3"/>
       <c r="N200" s="1"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="23"/>
-      <c r="G201" s="23"/>
-      <c r="H201" s="23"/>
-      <c r="I201" s="23"/>
-      <c r="J201" s="24"/>
-      <c r="K201" s="23"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="22"/>
+      <c r="J201" s="23"/>
+      <c r="K201" s="22"/>
       <c r="L201" s="1"/>
-      <c r="M201" s="4"/>
+      <c r="M201" s="3"/>
       <c r="N201" s="1"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="29"/>
-      <c r="G202" s="29"/>
-      <c r="H202" s="29"/>
-      <c r="I202" s="29"/>
-      <c r="J202" s="30"/>
-      <c r="K202" s="29"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="28"/>
+      <c r="H202" s="28"/>
+      <c r="I202" s="28"/>
+      <c r="J202" s="29"/>
+      <c r="K202" s="28"/>
       <c r="L202" s="1"/>
-      <c r="M202" s="4"/>
+      <c r="M202" s="3"/>
       <c r="N202" s="1"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="29"/>
-      <c r="H203" s="29"/>
-      <c r="I203" s="29"/>
-      <c r="J203" s="30"/>
-      <c r="K203" s="29"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="28"/>
+      <c r="H203" s="28"/>
+      <c r="I203" s="28"/>
+      <c r="J203" s="29"/>
+      <c r="K203" s="28"/>
       <c r="L203" s="1"/>
-      <c r="M203" s="4"/>
+      <c r="M203" s="3"/>
       <c r="N203" s="1"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="29"/>
-      <c r="G204" s="29"/>
-      <c r="H204" s="29"/>
-      <c r="I204" s="29"/>
-      <c r="J204" s="30"/>
-      <c r="K204" s="29"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
+      <c r="H204" s="28"/>
+      <c r="I204" s="28"/>
+      <c r="J204" s="29"/>
+      <c r="K204" s="28"/>
       <c r="L204" s="1"/>
-      <c r="M204" s="4"/>
+      <c r="M204" s="3"/>
       <c r="N204" s="1"/>
     </row>
   </sheetData>
